--- a/Assets/Resources/Localization/MainMenu.xlsx
+++ b/Assets/Resources/Localization/MainMenu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>English</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Выберете гранату</t>
   </si>
   <si>
-    <t>Выберете сложность</t>
-  </si>
-  <si>
     <t>Select your class</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Select your equipment</t>
   </si>
   <si>
-    <t>Русский</t>
-  </si>
-  <si>
     <t>#General</t>
   </si>
   <si>
@@ -186,6 +180,33 @@
   </si>
   <si>
     <t>#DebugGM menu</t>
+  </si>
+  <si>
+    <t>Выберете уровень слоности</t>
+  </si>
+  <si>
+    <t># Loading screen</t>
+  </si>
+  <si>
+    <t>LoadingTitle</t>
+  </si>
+  <si>
+    <t>LoadingSubtitle</t>
+  </si>
+  <si>
+    <t>Loading…</t>
+  </si>
+  <si>
+    <t>Please wait</t>
+  </si>
+  <si>
+    <t>Загрузка…</t>
+  </si>
+  <si>
+    <t>Пожалуйста подождите</t>
+  </si>
+  <si>
+    <t>Russian</t>
   </si>
 </sst>
 </file>
@@ -504,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +554,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -541,7 +562,7 @@
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +611,7 @@
     </row>
     <row r="7" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,18 +671,18 @@
     </row>
     <row r="13" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +693,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,70 +712,97 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
-        <v>43</v>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
